--- a/datos/qca.xlsx
+++ b/datos/qca.xlsx
@@ -392,9 +392,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -627,1184 +625,1076 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>828.4</v>
+        <v>8.283999999999999</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>25.000000000000004</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>17.3</v>
+        <v>0.17300000000000001</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>339.1</v>
+        <v>3.391</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>85.0</v>
+        <v>0.85</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3">
-        <v>110.8</v>
+        <v>1.1079999999999999</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>76.0</v>
+        <v>0.76</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>386.9</v>
+        <v>3.8689999999999998</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>370.5</v>
+        <v>3.705</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>40.660000000000004</v>
+        <v>0.4066</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>129.0</v>
+        <v>1.29</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3">
-        <v>15.91</v>
+        <v>0.1591</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>76.0</v>
+        <v>0.76</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>22.28</v>
+        <v>0.2228</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3">
-        <v>28.1</v>
+        <v>0.281</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>47.4</v>
+        <v>0.474</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
-        <v>120.0</v>
+        <v>1.2</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3">
-        <v>352.7</v>
+        <v>3.5269999999999997</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3">
-        <v>140.82</v>
+        <v>1.4082</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3">
-        <v>94.5</v>
+        <v>0.945</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3">
-        <v>163.0</v>
+        <v>1.63</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3">
-        <v>183.0</v>
+        <v>1.83</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3">
-        <v>427.1</v>
+        <v>4.271</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3">
-        <v>427.1</v>
+        <v>4.271</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3">
-        <v>16.48</v>
+        <v>0.1648</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="3">
-        <v>331.3</v>
+        <v>3.313</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="3">
-        <v>752.9</v>
+        <v>7.529</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="3">
-        <v>48.6</v>
+        <v>0.486</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3">
-        <v>51.0</v>
+        <v>0.51</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="3">
-        <v>243.89999999999998</v>
+        <v>2.4389999999999996</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="3">
-        <v>328.1</v>
+        <v>3.281</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="3">
-        <v>41.7</v>
+        <v>0.41700000000000004</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="3">
-        <v>25.8</v>
+        <v>0.258</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="3">
-        <v>105.67999999999999</v>
+        <v>1.0568</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="3">
-        <v>302.0</v>
+        <v>3.02</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="3">
-        <v>50.9</v>
+        <v>0.509</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="3">
-        <v>286.78</v>
+        <v>2.8678</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="3">
-        <v>143.2</v>
+        <v>1.432</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="3">
-        <v>82.2</v>
+        <v>0.8220000000000001</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="3">
-        <v>168.0</v>
+        <v>1.68</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="3">
-        <v>29.159999999999997</v>
+        <v>0.29159999999999997</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="3">
-        <v>441.0</v>
+        <v>4.41</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="3">
-        <v>101.0</v>
+        <v>1.01</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="3">
-        <v>2.6999999999999997</v>
+        <v>0.026999999999999996</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="3">
-        <v>16.2</v>
+        <v>0.162</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="3">
-        <v>96.5</v>
+        <v>0.965</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="3">
-        <v>65.4</v>
+        <v>0.654</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="3">
-        <v>57.24</v>
+        <v>0.5724</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="3">
-        <v>18.9</v>
+        <v>0.18899999999999997</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="3">
-        <v>15.899999999999999</v>
+        <v>0.15899999999999997</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="3">
-        <v>144.0</v>
+        <v>1.44</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="3">
-        <v>392.5</v>
+        <v>3.925</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="3">
-        <v>73.0</v>
+        <v>0.73</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="3">
-        <v>138.0</v>
+        <v>1.38</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="3">
-        <v>190.0</v>
+        <v>1.9</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="3">
-        <v>151.0</v>
+        <v>1.51</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="3">
-        <v>123.0</v>
+        <v>1.23</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="3">
-        <v>125.0</v>
+        <v>1.25</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="3">
-        <v>125.0</v>
+        <v>1.25</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="3">
-        <v>125.0</v>
+        <v>1.25</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="3">
-        <v>215.0</v>
+        <v>2.15</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="3">
-        <v>124.0</v>
+        <v>1.24</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="3">
-        <v>129.0</v>
+        <v>1.29</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="3">
-        <v>133.5</v>
+        <v>1.335</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="3">
-        <v>133.5</v>
+        <v>1.335</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="3">
-        <v>128.0</v>
+        <v>1.28</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="3">
-        <v>128.0</v>
+        <v>1.28</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="3">
-        <v>367.6</v>
+        <v>3.676</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3">
-        <v>76.0</v>
+        <v>0.76</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3">
-        <v>331.8</v>
+        <v>3.318</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="3">
-        <v>129.0</v>
+        <v>1.29</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="3">
-        <v>92.2</v>
+        <v>0.922</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="3">
-        <v>92.6</v>
+        <v>0.9259999999999999</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="3">
-        <v>100.2</v>
+        <v>1.002</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="3">
-        <v>95.4</v>
+        <v>0.9540000000000001</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="3">
-        <v>155.20000000000002</v>
+        <v>1.5520000000000003</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="3">
-        <v>460.0</v>
+        <v>4.6</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="3">
-        <v>460.0</v>
+        <v>4.6</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="3">
-        <v>68.5</v>
+        <v>0.685</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="3">
-        <v>65.0</v>
+        <v>0.65</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="3">
-        <v>650.0</v>
+        <v>6.5</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="3">
-        <v>349.7</v>
+        <v>3.497</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B84" s="3">
-        <v>76.0</v>
+        <v>0.76</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B85" s="3">
-        <v>76.0</v>
+        <v>0.76</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B86" s="3">
-        <v>76.0</v>
+        <v>0.76</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="3">
-        <v>196.0</v>
+        <v>1.96</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B88" s="3">
-        <v>125.8</v>
+        <v>1.258</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="3">
-        <v>117.0</v>
+        <v>1.17</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B90" s="3">
-        <v>233.0</v>
+        <v>2.33</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="3">
-        <v>53.16</v>
+        <v>0.5316</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="3">
-        <v>100.6</v>
+        <v>1.006</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B93" s="3">
-        <v>245.0</v>
+        <v>2.45</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B94" s="3">
-        <v>349.5</v>
+        <v>3.495</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B95" s="3">
-        <v>105.4</v>
+        <v>1.054</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="3">
-        <v>377.0</v>
+        <v>3.77</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="3">
-        <v>498.5</v>
+        <v>4.985</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B98" s="3">
-        <v>502.5</v>
+        <v>5.025</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B99" s="3">
-        <v>78.0</v>
+        <v>0.78</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B100" s="3">
-        <v>76.0</v>
+        <v>0.76</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="3">
-        <v>76.0</v>
+        <v>0.76</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B102" s="3">
-        <v>158.0</v>
+        <v>1.58</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B103" s="3">
-        <v>156.0</v>
+        <v>1.56</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B104" s="3">
-        <v>182.0</v>
+        <v>1.82</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B105" s="3">
-        <v>110.0</v>
+        <v>1.1</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="3">
-        <v>206.5</v>
+        <v>2.065</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B107" s="3">
-        <v>312.2</v>
+        <v>3.122</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="3">
-        <v>383.0</v>
+        <v>3.83</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
